--- a/po_analysis_by_asin/B094NLW36Z_po_data.xlsx
+++ b/po_analysis_by_asin/B094NLW36Z_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,38 +538,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45088.99999999999</v>
-      </c>
-      <c r="B13" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45095.99999999999</v>
-      </c>
-      <c r="B14" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45102.99999999999</v>
-      </c>
-      <c r="B15" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45137.99999999999</v>
-      </c>
-      <c r="B16" t="n">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -581,7 +549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,22 +593,6 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45107.99999999999</v>
-      </c>
-      <c r="B5" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45138.99999999999</v>
-      </c>
-      <c r="B6" t="n">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/po_analysis_by_asin/B094NLW36Z_po_data.xlsx
+++ b/po_analysis_by_asin/B094NLW36Z_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -565,7 +566,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -591,6 +592,313 @@
       </c>
       <c r="B4" t="n">
         <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>32</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.948480590707766</v>
+      </c>
+      <c r="D2" t="n">
+        <v>61.57774640290018</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>31</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.317529242613807</v>
+      </c>
+      <c r="D3" t="n">
+        <v>61.46803324112675</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>29</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.653827918756607</v>
+      </c>
+      <c r="D4" t="n">
+        <v>59.04364420868994</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>27</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-3.944374171408937</v>
+      </c>
+      <c r="D5" t="n">
+        <v>54.61105273295123</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>25</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-5.157595250351463</v>
+      </c>
+      <c r="D6" t="n">
+        <v>56.25398409448614</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>23</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-5.299966855975468</v>
+      </c>
+      <c r="D7" t="n">
+        <v>55.07869297573436</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>21</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-9.381587569624275</v>
+      </c>
+      <c r="D8" t="n">
+        <v>50.40527625869287</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-11.80177947533241</v>
+      </c>
+      <c r="D9" t="n">
+        <v>50.0276723406017</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>18</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-11.3919967450157</v>
+      </c>
+      <c r="D10" t="n">
+        <v>48.14434777679232</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>16</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-13.97853927819847</v>
+      </c>
+      <c r="D11" t="n">
+        <v>48.43111761811893</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>14</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-15.28303611252743</v>
+      </c>
+      <c r="D12" t="n">
+        <v>44.60379218394732</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-17.94896658131541</v>
+      </c>
+      <c r="D13" t="n">
+        <v>42.94091217601816</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>11</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-18.08540626933987</v>
+      </c>
+      <c r="D14" t="n">
+        <v>40.94400984880694</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-17.3889537073075</v>
+      </c>
+      <c r="D15" t="n">
+        <v>37.65242603042372</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-23.56824124016689</v>
+      </c>
+      <c r="D16" t="n">
+        <v>36.50493102812035</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-26.7733374569099</v>
+      </c>
+      <c r="D17" t="n">
+        <v>33.43865679952293</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-26.81831526273327</v>
+      </c>
+      <c r="D18" t="n">
+        <v>34.617214098917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-27.7831066946515</v>
+      </c>
+      <c r="D19" t="n">
+        <v>30.41383177156771</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-30.64807556018309</v>
+      </c>
+      <c r="D20" t="n">
+        <v>29.01467173966362</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B094NLW36Z_po_data.xlsx
+++ b/po_analysis_by_asin/B094NLW36Z_po_data.xlsx
@@ -605,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,16 +624,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -642,12 +632,6 @@
       <c r="B2" t="n">
         <v>32</v>
       </c>
-      <c r="C2" t="n">
-        <v>3.948480590707766</v>
-      </c>
-      <c r="D2" t="n">
-        <v>61.57774640290018</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -656,12 +640,6 @@
       <c r="B3" t="n">
         <v>31</v>
       </c>
-      <c r="C3" t="n">
-        <v>2.317529242613807</v>
-      </c>
-      <c r="D3" t="n">
-        <v>61.46803324112675</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -670,12 +648,6 @@
       <c r="B4" t="n">
         <v>29</v>
       </c>
-      <c r="C4" t="n">
-        <v>-1.653827918756607</v>
-      </c>
-      <c r="D4" t="n">
-        <v>59.04364420868994</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -684,12 +656,6 @@
       <c r="B5" t="n">
         <v>27</v>
       </c>
-      <c r="C5" t="n">
-        <v>-3.944374171408937</v>
-      </c>
-      <c r="D5" t="n">
-        <v>54.61105273295123</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -698,12 +664,6 @@
       <c r="B6" t="n">
         <v>25</v>
       </c>
-      <c r="C6" t="n">
-        <v>-5.157595250351463</v>
-      </c>
-      <c r="D6" t="n">
-        <v>56.25398409448614</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -712,12 +672,6 @@
       <c r="B7" t="n">
         <v>23</v>
       </c>
-      <c r="C7" t="n">
-        <v>-5.299966855975468</v>
-      </c>
-      <c r="D7" t="n">
-        <v>55.07869297573436</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -726,12 +680,6 @@
       <c r="B8" t="n">
         <v>21</v>
       </c>
-      <c r="C8" t="n">
-        <v>-9.381587569624275</v>
-      </c>
-      <c r="D8" t="n">
-        <v>50.40527625869287</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -740,12 +688,6 @@
       <c r="B9" t="n">
         <v>20</v>
       </c>
-      <c r="C9" t="n">
-        <v>-11.80177947533241</v>
-      </c>
-      <c r="D9" t="n">
-        <v>50.0276723406017</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -754,12 +696,6 @@
       <c r="B10" t="n">
         <v>18</v>
       </c>
-      <c r="C10" t="n">
-        <v>-11.3919967450157</v>
-      </c>
-      <c r="D10" t="n">
-        <v>48.14434777679232</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -768,12 +704,6 @@
       <c r="B11" t="n">
         <v>16</v>
       </c>
-      <c r="C11" t="n">
-        <v>-13.97853927819847</v>
-      </c>
-      <c r="D11" t="n">
-        <v>48.43111761811893</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -782,12 +712,6 @@
       <c r="B12" t="n">
         <v>14</v>
       </c>
-      <c r="C12" t="n">
-        <v>-15.28303611252743</v>
-      </c>
-      <c r="D12" t="n">
-        <v>44.60379218394732</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -796,12 +720,6 @@
       <c r="B13" t="n">
         <v>12</v>
       </c>
-      <c r="C13" t="n">
-        <v>-17.94896658131541</v>
-      </c>
-      <c r="D13" t="n">
-        <v>42.94091217601816</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -810,12 +728,6 @@
       <c r="B14" t="n">
         <v>11</v>
       </c>
-      <c r="C14" t="n">
-        <v>-18.08540626933987</v>
-      </c>
-      <c r="D14" t="n">
-        <v>40.94400984880694</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -824,12 +736,6 @@
       <c r="B15" t="n">
         <v>9</v>
       </c>
-      <c r="C15" t="n">
-        <v>-17.3889537073075</v>
-      </c>
-      <c r="D15" t="n">
-        <v>37.65242603042372</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -838,12 +744,6 @@
       <c r="B16" t="n">
         <v>7</v>
       </c>
-      <c r="C16" t="n">
-        <v>-23.56824124016689</v>
-      </c>
-      <c r="D16" t="n">
-        <v>36.50493102812035</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -852,12 +752,6 @@
       <c r="B17" t="n">
         <v>5</v>
       </c>
-      <c r="C17" t="n">
-        <v>-26.7733374569099</v>
-      </c>
-      <c r="D17" t="n">
-        <v>33.43865679952293</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -866,12 +760,6 @@
       <c r="B18" t="n">
         <v>3</v>
       </c>
-      <c r="C18" t="n">
-        <v>-26.81831526273327</v>
-      </c>
-      <c r="D18" t="n">
-        <v>34.617214098917</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -880,12 +768,6 @@
       <c r="B19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" t="n">
-        <v>-27.7831066946515</v>
-      </c>
-      <c r="D19" t="n">
-        <v>30.41383177156771</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -893,12 +775,6 @@
       </c>
       <c r="B20" t="n">
         <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-30.64807556018309</v>
-      </c>
-      <c r="D20" t="n">
-        <v>29.01467173966362</v>
       </c>
     </row>
   </sheetData>
